--- a/results/data/test_pass_rate_over_itteration.xlsx
+++ b/results/data/test_pass_rate_over_itteration.xlsx
@@ -7,13 +7,14 @@
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
     <sheet name="RefAgent-GPT" sheetId="2" r:id="rId5"/>
-    <sheet name="RefAgent-Starcoder" sheetId="3" r:id="rId6"/>
+    <sheet name="RefAgent-Deepseek-coder" sheetId="3" r:id="rId6"/>
+    <sheet name="RefAgent-Starcoder" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -27,10 +28,38 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>RefAgent-GPT</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>RefAgent-GPT</t>
+    </r>
+  </si>
+  <si>
+    <t>RefAgent-Starcoder</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>RefAgent-Starcoder</t>
+    </r>
   </si>
   <si>
     <t>Iteration</t>
@@ -60,7 +89,7 @@
     <t>Jclouds</t>
   </si>
   <si>
-    <t>RefAgent-Starcoder</t>
+    <t>RefAgent-Deepseek-coder</t>
   </si>
 </sst>
 </file>
@@ -109,7 +138,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,17 +159,110 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -160,31 +282,121 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -194,7 +406,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -216,13 +428,124 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -248,8 +571,11 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -400,9 +726,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -482,7 +808,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -509,10 +835,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -759,9 +1085,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1039,7 +1365,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1066,10 +1392,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1311,319 +1637,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="20"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'RefAgent-GPT'!R1C1" tooltip="" display="RefAgent-GPT"/>
     <hyperlink ref="D12" location="'RefAgent-Starcoder'!R1C1" tooltip="" display="RefAgent-Starcoder"/>
+    <hyperlink ref="D12" location="'RefAgent-GPT'!R1C1" tooltip="" display="RefAgent-GPT"/>
+    <hyperlink ref="D14" location="'RefAgent-Deepseek-coder'!R2C1" tooltip="" display="RefAgent-Deepseek-coder"/>
+    <hyperlink ref="D16" location="'RefAgent-Starcoder'!R1C1" tooltip="" display="RefAgent-Starcoder"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="8.85156" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="9" width="8.85156" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
+      <c r="A1" t="s" s="26">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="7">
+      <c r="B1" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="C1" t="s" s="26">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="7">
+      <c r="D1" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="I1" t="s" s="7">
+      <c r="E1" t="s" s="26">
         <v>14</v>
       </c>
+      <c r="F1" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s" s="26">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="27">
         <v>54</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="27">
         <v>59</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="27">
         <v>64</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="27">
         <v>50</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="27">
         <v>55</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="27">
         <v>58</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="27">
         <v>65</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="27">
         <v>72</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="28">
         <v>64</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="28">
         <v>67</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="28">
         <v>69</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="28">
         <v>57</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="28">
         <v>63</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="28">
         <v>67</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="28">
         <v>70</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="28">
         <v>78</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="28">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="28">
         <v>72</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="28">
         <v>76</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="28">
         <v>79</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="28">
         <v>68</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="28">
         <v>72</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="28">
         <v>75</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="28">
         <v>80</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="28">
         <v>85</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="28">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="28">
         <v>85</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="28">
         <v>89</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="28">
         <v>91</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="28">
         <v>78</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="28">
         <v>85</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="28">
         <v>88</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="28">
         <v>92</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="28">
         <v>94</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="28">
         <v>12</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="28">
         <v>87</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="28">
         <v>87</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="28">
         <v>90</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="28">
         <v>80</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="28">
         <v>87</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="28">
         <v>89</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="28">
         <v>92</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="28">
         <v>94</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="28">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="28">
         <v>86</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="28">
         <v>90</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="28">
         <v>92</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="28">
         <v>83</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="28">
         <v>87</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="28">
         <v>90</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="28">
         <v>93</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="28">
         <v>94</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="28">
         <v>20</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="28">
         <v>85</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="28">
         <v>88</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="28">
         <v>92</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="28">
         <v>85</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="28">
         <v>87</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="28">
         <v>90</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="28">
         <v>93</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="28">
         <v>95</v>
       </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1636,247 +2090,565 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="9" width="16.3516" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.55" customHeight="1">
+      <c r="A1" t="s" s="36">
+        <v>5</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="37">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38">
+        <v>53</v>
+      </c>
+      <c r="C3" s="38">
+        <v>60</v>
+      </c>
+      <c r="D3" s="38">
+        <v>64</v>
+      </c>
+      <c r="E3" s="38">
+        <v>55</v>
+      </c>
+      <c r="F3" s="38">
+        <v>58</v>
+      </c>
+      <c r="G3" s="38">
+        <v>58</v>
+      </c>
+      <c r="H3" s="38">
+        <v>67</v>
+      </c>
+      <c r="I3" s="38">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="39">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40">
+        <v>66</v>
+      </c>
+      <c r="C4" s="40">
+        <v>69</v>
+      </c>
+      <c r="D4" s="40">
+        <v>70</v>
+      </c>
+      <c r="E4" s="40">
+        <v>63</v>
+      </c>
+      <c r="F4" s="40">
+        <v>66</v>
+      </c>
+      <c r="G4" s="40">
+        <v>67</v>
+      </c>
+      <c r="H4" s="40">
+        <v>70</v>
+      </c>
+      <c r="I4" s="40">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="39">
+        <v>5</v>
+      </c>
+      <c r="B5" s="40">
+        <v>72</v>
+      </c>
+      <c r="C5" s="40">
+        <v>76</v>
+      </c>
+      <c r="D5" s="40">
+        <v>84</v>
+      </c>
+      <c r="E5" s="40">
+        <v>68</v>
+      </c>
+      <c r="F5" s="40">
+        <v>78</v>
+      </c>
+      <c r="G5" s="40">
+        <v>75</v>
+      </c>
+      <c r="H5" s="40">
+        <v>84</v>
+      </c>
+      <c r="I5" s="40">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="39">
+        <v>10</v>
+      </c>
+      <c r="B6" s="40">
+        <v>87</v>
+      </c>
+      <c r="C6" s="40">
+        <v>90</v>
+      </c>
+      <c r="D6" s="40">
+        <v>91</v>
+      </c>
+      <c r="E6" s="40">
+        <v>78</v>
+      </c>
+      <c r="F6" s="40">
+        <v>86</v>
+      </c>
+      <c r="G6" s="40">
+        <v>89</v>
+      </c>
+      <c r="H6" s="40">
+        <v>92</v>
+      </c>
+      <c r="I6" s="40">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="39">
+        <v>12</v>
+      </c>
+      <c r="B7" s="40">
+        <v>87</v>
+      </c>
+      <c r="C7" s="40">
+        <v>87</v>
+      </c>
+      <c r="D7" s="40">
+        <v>90</v>
+      </c>
+      <c r="E7" s="40">
+        <v>83</v>
+      </c>
+      <c r="F7" s="40">
+        <v>89</v>
+      </c>
+      <c r="G7" s="40">
+        <v>90</v>
+      </c>
+      <c r="H7" s="40">
+        <v>92</v>
+      </c>
+      <c r="I7" s="40">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="39">
+        <v>15</v>
+      </c>
+      <c r="B8" s="40">
+        <v>86</v>
+      </c>
+      <c r="C8" s="40">
+        <v>90</v>
+      </c>
+      <c r="D8" s="40">
+        <v>92</v>
+      </c>
+      <c r="E8" s="40">
+        <v>83</v>
+      </c>
+      <c r="F8" s="40">
+        <v>90</v>
+      </c>
+      <c r="G8" s="40">
+        <v>91</v>
+      </c>
+      <c r="H8" s="40">
+        <v>93</v>
+      </c>
+      <c r="I8" s="40">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="39">
+        <v>20</v>
+      </c>
+      <c r="B9" s="40">
+        <v>86</v>
+      </c>
+      <c r="C9" s="40">
+        <v>90</v>
+      </c>
+      <c r="D9" s="40">
+        <v>93</v>
+      </c>
+      <c r="E9" s="40">
+        <v>87</v>
+      </c>
+      <c r="F9" s="40">
+        <v>89</v>
+      </c>
+      <c r="G9" s="40">
+        <v>90</v>
+      </c>
+      <c r="H9" s="40">
+        <v>93</v>
+      </c>
+      <c r="I9" s="40">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" ht="13.2" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" ht="12.9" customHeight="1">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="8.85156" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="10" customWidth="1"/>
+    <col min="1" max="9" width="8.85156" style="47" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
+      <c r="A1" t="s" s="26">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="7">
+      <c r="B1" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="C1" t="s" s="26">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="7">
+      <c r="D1" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="I1" t="s" s="7">
+      <c r="E1" t="s" s="26">
         <v>14</v>
       </c>
+      <c r="F1" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s" s="26">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="27">
         <v>56</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="27">
         <v>60</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="27">
         <v>65</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="27">
         <v>53</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="27">
         <v>58</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="27">
         <v>62</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="27">
         <v>66</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="27">
         <v>70</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="28">
         <v>61</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="28">
         <v>66</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="28">
         <v>73</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="28">
         <v>55</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="28">
         <v>60</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="28">
         <v>65</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="28">
         <v>72</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="28">
         <v>74</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="28">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="28">
         <v>66</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="28">
         <v>69</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="28">
         <v>74</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="28">
         <v>62</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="28">
         <v>68</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="28">
         <v>70</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="28">
         <v>75</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="28">
         <v>78</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="28">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="28">
         <v>79</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="28">
         <v>83</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="28">
         <v>86</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="28">
         <v>72</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="28">
         <v>78</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="28">
         <v>82</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="28">
         <v>88</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="28">
         <v>90</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="28">
         <v>12</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="28">
         <v>82</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="28">
         <v>85</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="28">
         <v>87</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="28">
         <v>79</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="28">
         <v>83</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="28">
         <v>85</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="28">
         <v>88</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="28">
         <v>90</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="28">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="28">
         <v>85</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="28">
         <v>86</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="28">
         <v>89</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="28">
         <v>83</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="28">
         <v>84</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="28">
         <v>85</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="28">
         <v>88</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="28">
         <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="28">
         <v>20</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="28">
         <v>83</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="28">
         <v>83</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="28">
         <v>88</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="28">
         <v>83</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="28">
         <v>84</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="28">
         <v>85</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="28">
         <v>88</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="28">
         <v>90</v>
       </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
